--- a/Catalog/data_vandervliet.xlsx
+++ b/Catalog/data_vandervliet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compo\Desktop\werk\PDF creater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compo\Desktop\werk\VanDerVliet\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85ABB7A-7614-41D2-931E-881869DAFC48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AD10E3-54AB-4CD9-8C40-ED67E2D915FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14280" yWindow="3750" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10465,8 +10465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P845"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45185,7 +45185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A690401E-F62B-4020-8B19-E371273AA2F0}">
   <dimension ref="A1:D845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F838" sqref="F838"/>
     </sheetView>
   </sheetViews>
